--- a/opt_results.xlsx
+++ b/opt_results.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>353.2</v>
+        <v>163.53</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -485,323 +485,323 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>cap_ins[2,ng-p,1]</t>
+          <t>cap_ins[1,wt-p,1]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>353.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>cap_ins[2,ng-p,2]</t>
+          <t>cap_ins[1,wt-p,2]</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>cap_ins[2,ng-p,3]</t>
+          <t>cap_ins[1,wt-p,3]</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>75.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>cap_ins[2,ng-p,4]</t>
+          <t>cap_ins[1,wt-p,4]</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>cap_ins[2,ng-p,5]</t>
+          <t>cap_ins[1,wt-p,5]</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>cap_ins[3,ng-p,1]</t>
+          <t>cap_ins[2,ng-p,1]</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>353.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>cap_ins[3,ng-p,2]</t>
+          <t>cap_ins[2,ng-p,2]</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>cap_ins[3,ng-p,3]</t>
+          <t>cap_ins[2,ng-p,3]</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>cap_ins[3,ng-p,4]</t>
+          <t>cap_ins[2,ng-p,4]</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>cap_ins[3,ng-p,5]</t>
+          <t>cap_ins[2,ng-p,5]</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>cap_ins[4,ng-p,1]</t>
+          <t>cap_ins[2,wt-p,1]</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>353.2</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>cap_ins[4,ng-p,2]</t>
+          <t>cap_ins[2,wt-p,2]</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>71.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>cap_ins[4,ng-p,3]</t>
+          <t>cap_ins[2,wt-p,3]</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>cap_ins[4,ng-p,4]</t>
+          <t>cap_ins[2,wt-p,4]</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>78.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>cap_ins[4,ng-p,5]</t>
+          <t>cap_ins[2,wt-p,5]</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>82.40000000000001</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[2,1]</t>
+          <t>cap_ins[3,ng-p,1]</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[2,2]</t>
+          <t>cap_ins[3,ng-p,2]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>48.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[2,3]</t>
+          <t>cap_ins[3,ng-p,3]</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[2,4]</t>
+          <t>cap_ins[3,ng-p,4]</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[2,5]</t>
+          <t>cap_ins[3,ng-p,5]</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>17.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[3,1]</t>
+          <t>cap_ins[3,wt-p,1]</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>119.6</v>
+        <v>800</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[3,2]</t>
+          <t>cap_ins[3,wt-p,2]</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.1</v>
+        <v>724.9400000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[3,3]</t>
+          <t>cap_ins[3,wt-p,3]</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>35.9</v>
+        <v>800</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[3,4]</t>
+          <t>cap_ins[3,wt-p,4]</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.4</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[3,5]</t>
+          <t>cap_ins[3,wt-p,5]</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.40000000000001</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[4,1]</t>
+          <t>cap_ins[4,ng-p,1]</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.6</v>
+        <v>34.47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[4,2]</t>
+          <t>cap_ins[4,ng-p,2]</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[4,3]</t>
+          <t>cap_ins[4,ng-p,3]</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[4,4]</t>
+          <t>cap_ins[4,ng-p,4]</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[4,5]</t>
+          <t>cap_ins[4,ng-p,5]</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[5,1]</t>
+          <t>cap_ins[4,wt-p,1]</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[5,2]</t>
+          <t>cap_ins[4,wt-p,2]</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -811,231 +811,231 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[5,3]</t>
+          <t>cap_ins[4,wt-p,3]</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[5,4]</t>
+          <t>cap_ins[4,wt-p,4]</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>cap_ins_line[5,5]</t>
+          <t>cap_ins[4,wt-p,5]</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>66.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[1,ng-p,1]</t>
+          <t>cap_ins_line[2,1]</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0</v>
+        <v>258.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[1,ng-p,2]</t>
+          <t>cap_ins_line[2,2]</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[1,ng-p,3]</t>
+          <t>cap_ins_line[2,3]</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[1,ng-p,4]</t>
+          <t>cap_ins_line[2,4]</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[1,ng-p,5]</t>
+          <t>cap_ins_line[2,5]</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0</v>
+        <v>261.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[2,ng-p,1]</t>
+          <t>cap_ins_line[3,1]</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[2,ng-p,2]</t>
+          <t>cap_ins_line[3,2]</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[2,ng-p,3]</t>
+          <t>cap_ins_line[3,3]</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0</v>
+        <v>117.19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[2,ng-p,4]</t>
+          <t>cap_ins_line[3,4]</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[2,ng-p,5]</t>
+          <t>cap_ins_line[3,5]</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[3,ng-p,1]</t>
+          <t>cap_ins_line[4,1]</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[3,ng-p,2]</t>
+          <t>cap_ins_line[4,2]</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[3,ng-p,3]</t>
+          <t>cap_ins_line[4,3]</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[3,ng-p,4]</t>
+          <t>cap_ins_line[4,4]</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[3,ng-p,5]</t>
+          <t>cap_ins_line[4,5]</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[4,ng-p,1]</t>
+          <t>cap_ins_line[5,1]</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0</v>
+        <v>326.4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[4,ng-p,2]</t>
+          <t>cap_ins_line[5,2]</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0</v>
+        <v>280.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[4,ng-p,3]</t>
+          <t>cap_ins_line[5,3]</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0</v>
+        <v>136.33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[4,ng-p,4]</t>
+          <t>cap_ins_line[5,4]</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0</v>
+        <v>146.87</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>cap_bn[4,ng-p,5]</t>
+          <t>cap_ins_line[5,5]</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0</v>
+        <v>403.8</v>
       </c>
     </row>
     <row r="62">
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>353.2</v>
+        <v>163.53</v>
       </c>
     </row>
     <row r="78">
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>425</v>
+        <v>163.53</v>
       </c>
     </row>
     <row r="79">
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>500.1</v>
+        <v>163.53</v>
       </c>
     </row>
     <row r="80">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>578.6</v>
+        <v>163.53</v>
       </c>
     </row>
     <row r="81">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>661</v>
+        <v>163.53</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng1,1]</t>
+          <t>cap_ava[1,wt-p,1]</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1251,7 +1251,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng1,2]</t>
+          <t>cap_ava[1,wt-p,2]</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1261,7 +1261,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng1,3]</t>
+          <t>cap_ava[1,wt-p,3]</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1271,7 +1271,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng1,4]</t>
+          <t>cap_ava[1,wt-p,4]</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1281,7 +1281,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng1,5]</t>
+          <t>cap_ava[1,wt-p,5]</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1291,7 +1291,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng2,1]</t>
+          <t>cap_ava[2,ng1,1]</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1301,7 +1301,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng2,2]</t>
+          <t>cap_ava[2,ng1,2]</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1311,7 +1311,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng2,3]</t>
+          <t>cap_ava[2,ng1,3]</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1321,7 +1321,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng2,4]</t>
+          <t>cap_ava[2,ng1,4]</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1331,7 +1331,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng2,5]</t>
+          <t>cap_ava[2,ng1,5]</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1341,7 +1341,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng3,1]</t>
+          <t>cap_ava[2,ng2,1]</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1351,7 +1351,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng3,2]</t>
+          <t>cap_ava[2,ng2,2]</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1361,7 +1361,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng3,3]</t>
+          <t>cap_ava[2,ng2,3]</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1371,7 +1371,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng3,4]</t>
+          <t>cap_ava[2,ng2,4]</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1381,7 +1381,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng3,5]</t>
+          <t>cap_ava[2,ng2,5]</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1391,57 +1391,57 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng-p,1]</t>
+          <t>cap_ava[2,ng3,1]</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>353.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng-p,2]</t>
+          <t>cap_ava[2,ng3,2]</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng-p,3]</t>
+          <t>cap_ava[2,ng3,3]</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>500.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng-p,4]</t>
+          <t>cap_ava[2,ng3,4]</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>578.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[2,ng-p,5]</t>
+          <t>cap_ava[2,ng3,5]</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng1,1]</t>
+          <t>cap_ava[2,ng-p,1]</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -1451,7 +1451,7 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng1,2]</t>
+          <t>cap_ava[2,ng-p,2]</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1461,7 +1461,7 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng1,3]</t>
+          <t>cap_ava[2,ng-p,3]</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1471,7 +1471,7 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng1,4]</t>
+          <t>cap_ava[2,ng-p,4]</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1481,7 +1481,7 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng1,5]</t>
+          <t>cap_ava[2,ng-p,5]</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1491,57 +1491,57 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng2,1]</t>
+          <t>cap_ava[2,wt-p,1]</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng2,2]</t>
+          <t>cap_ava[2,wt-p,2]</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng2,3]</t>
+          <t>cap_ava[2,wt-p,3]</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng2,4]</t>
+          <t>cap_ava[2,wt-p,4]</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng2,5]</t>
+          <t>cap_ava[2,wt-p,5]</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng3,1]</t>
+          <t>cap_ava[3,ng1,1]</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1551,7 +1551,7 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng3,2]</t>
+          <t>cap_ava[3,ng1,2]</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1561,7 +1561,7 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng3,3]</t>
+          <t>cap_ava[3,ng1,3]</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1571,7 +1571,7 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng3,4]</t>
+          <t>cap_ava[3,ng1,4]</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1581,7 +1581,7 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng3,5]</t>
+          <t>cap_ava[3,ng1,5]</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1591,557 +1591,557 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng-p,1]</t>
+          <t>cap_ava[3,ng2,1]</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>353.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng-p,2]</t>
+          <t>cap_ava[3,ng2,2]</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng-p,3]</t>
+          <t>cap_ava[3,ng2,3]</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>500.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng-p,4]</t>
+          <t>cap_ava[3,ng2,4]</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>578.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[3,ng-p,5]</t>
+          <t>cap_ava[3,ng2,5]</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng1,1]</t>
+          <t>cap_ava[3,ng3,1]</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng1,2]</t>
+          <t>cap_ava[3,ng3,2]</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng1,3]</t>
+          <t>cap_ava[3,ng3,3]</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng1,4]</t>
+          <t>cap_ava[3,ng3,4]</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng1,5]</t>
+          <t>cap_ava[3,ng3,5]</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng2,1]</t>
+          <t>cap_ava[3,ng-p,1]</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng2,2]</t>
+          <t>cap_ava[3,ng-p,2]</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng2,3]</t>
+          <t>cap_ava[3,ng-p,3]</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng2,4]</t>
+          <t>cap_ava[3,ng-p,4]</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng2,5]</t>
+          <t>cap_ava[3,ng-p,5]</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>510</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng3,1]</t>
+          <t>cap_ava[3,wt-p,1]</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng3,2]</t>
+          <t>cap_ava[3,wt-p,2]</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>300</v>
+        <v>1524.94</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng3,3]</t>
+          <t>cap_ava[3,wt-p,3]</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>300</v>
+        <v>2324.94</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng3,4]</t>
+          <t>cap_ava[3,wt-p,4]</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>300</v>
+        <v>3124.94</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng3,5]</t>
+          <t>cap_ava[3,wt-p,5]</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>300</v>
+        <v>3924.94</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng-p,1]</t>
+          <t>cap_ava[4,ng1,1]</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>353.2</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng-p,2]</t>
+          <t>cap_ava[4,ng1,2]</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>425</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng-p,3]</t>
+          <t>cap_ava[4,ng1,3]</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>500.1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng-p,4]</t>
+          <t>cap_ava[4,ng1,4]</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>578.6</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>cap_ava[4,ng-p,5]</t>
+          <t>cap_ava[4,ng1,5]</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>661</v>
+        <v>106</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[1,1]</t>
+          <t>cap_ava[4,ng2,1]</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[1,2]</t>
+          <t>cap_ava[4,ng2,2]</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[1,3]</t>
+          <t>cap_ava[4,ng2,3]</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[1,4]</t>
+          <t>cap_ava[4,ng2,4]</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[1,5]</t>
+          <t>cap_ava[4,ng2,5]</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>300</v>
+        <v>510</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[2,1]</t>
+          <t>cap_ava[4,ng3,1]</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>140.6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[2,2]</t>
+          <t>cap_ava[4,ng3,2]</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>189.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[2,3]</t>
+          <t>cap_ava[4,ng3,3]</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>212.6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[2,4]</t>
+          <t>cap_ava[4,ng3,4]</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>263.3</v>
+        <v>300</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[2,5]</t>
+          <t>cap_ava[4,ng3,5]</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[3,1]</t>
+          <t>cap_ava[4,ng-p,1]</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>119.6</v>
+        <v>34.47</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[3,2]</t>
+          <t>cap_ava[4,ng-p,2]</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>180.7</v>
+        <v>34.47</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[3,3]</t>
+          <t>cap_ava[4,ng-p,3]</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>216.6</v>
+        <v>34.47</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[3,4]</t>
+          <t>cap_ava[4,ng-p,4]</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>246</v>
+        <v>34.47</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[3,5]</t>
+          <t>cap_ava[4,ng-p,5]</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>312.4</v>
+        <v>34.47</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[4,1]</t>
+          <t>cap_ava[4,wt-p,1]</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>159.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[4,2]</t>
+          <t>cap_ava[4,wt-p,2]</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>171.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[4,3]</t>
+          <t>cap_ava[4,wt-p,3]</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>212.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[4,4]</t>
+          <t>cap_ava[4,wt-p,4]</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>263.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[4,5]</t>
+          <t>cap_ava[4,wt-p,5]</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[5,1]</t>
+          <t>cap_ava_line[1,1]</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>180.6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[5,2]</t>
+          <t>cap_ava_line[1,2]</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>180.6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[5,3]</t>
+          <t>cap_ava_line[1,3]</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>216.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[5,4]</t>
+          <t>cap_ava_line[1,4]</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>245.9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>cap_ava_line[5,5]</t>
+          <t>cap_ava_line[1,5]</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>312.3</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>cap_b[1,ng-p,1]</t>
+          <t>cap_ava_line[2,1]</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>258.4</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>cap_b[1,ng-p,2]</t>
+          <t>cap_ava_line[2,2]</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>258.4</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>cap_b[1,ng-p,3]</t>
+          <t>cap_ava_line[2,3]</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>258.4</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>cap_b[1,ng-p,4]</t>
+          <t>cap_ava_line[2,4]</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>258.4</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>cap_b[1,ng-p,5]</t>
+          <t>cap_ava_line[2,5]</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>520</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>cap_b[2,ng-p,1]</t>
+          <t>cap_ava_line[3,1]</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2151,7 +2151,7 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>cap_b[2,ng-p,2]</t>
+          <t>cap_ava_line[3,2]</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2161,37 +2161,37 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>cap_b[2,ng-p,3]</t>
+          <t>cap_ava_line[3,3]</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>117.19</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>cap_b[2,ng-p,4]</t>
+          <t>cap_ava_line[3,4]</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>183.99</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>cap_b[2,ng-p,5]</t>
+          <t>cap_ava_line[3,5]</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>183.99</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>cap_b[3,ng-p,1]</t>
+          <t>cap_ava_line[4,1]</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2201,7 +2201,7 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>cap_b[3,ng-p,2]</t>
+          <t>cap_ava_line[4,2]</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2211,7 +2211,7 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>cap_b[3,ng-p,3]</t>
+          <t>cap_ava_line[4,3]</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2221,7 +2221,7 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>cap_b[3,ng-p,4]</t>
+          <t>cap_ava_line[4,4]</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2231,7 +2231,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>cap_b[3,ng-p,5]</t>
+          <t>cap_ava_line[4,5]</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2241,51 +2241,51 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>cap_b[4,ng-p,1]</t>
+          <t>cap_ava_line[5,1]</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>326.4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>cap_b[4,ng-p,2]</t>
+          <t>cap_ava_line[5,2]</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>606.7</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>cap_b[4,ng-p,3]</t>
+          <t>cap_ava_line[5,3]</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>743.03</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>cap_b[4,ng-p,4]</t>
+          <t>cap_ava_line[5,4]</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>889.91</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>cap_b[4,ng-p,5]</t>
+          <t>cap_ava_line[5,5]</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1293.71</v>
       </c>
     </row>
   </sheetData>
